--- a/04DataViz/A2c/02RenewablesBySector/SectorwiseFuel.xlsx
+++ b/04DataViz/A2c/02RenewablesBySector/SectorwiseFuel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DBB276-4998-4744-AA9A-2A27F45AAF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A04DADE-D864-4508-818F-CD87CEAA6D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>2021-22</t>
   </si>
@@ -43,39 +43,6 @@
   </si>
   <si>
     <t>Transport</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-13</t>
-  </si>
-  <si>
-    <t>2013-14</t>
   </si>
   <si>
     <t>2014-15</t>
@@ -451,26 +418,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21D6317-E460-4D12-8755-EEF4AE97FFA2}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:A11"/>
+      <selection activeCell="C1" sqref="C1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="22" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -494,722 +460,359 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>387.858</v>
+      </c>
+      <c r="D2">
+        <v>395.41399999999999</v>
+      </c>
+      <c r="E2">
+        <v>409.27000000000004</v>
+      </c>
+      <c r="F2">
+        <v>434.73199999999997</v>
+      </c>
+      <c r="G2">
+        <v>426.36200000000002</v>
+      </c>
+      <c r="H2">
+        <v>427.92999999999995</v>
+      </c>
+      <c r="I2">
+        <v>464.30700000000002</v>
+      </c>
+      <c r="J2">
+        <v>463.36099999999999</v>
+      </c>
+      <c r="K2">
+        <v>476.49200000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>3.16</v>
+      </c>
+      <c r="D3">
+        <v>0.191</v>
+      </c>
+      <c r="E3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="C4">
+        <v>558.67499999999995</v>
+      </c>
+      <c r="D4">
+        <v>535.83199999999999</v>
+      </c>
+      <c r="E4">
+        <v>516.79399999999998</v>
+      </c>
+      <c r="F4">
+        <v>518.06399999999996</v>
+      </c>
+      <c r="G4">
+        <v>511.75799999999998</v>
+      </c>
+      <c r="H4">
+        <v>504.25399999999996</v>
+      </c>
+      <c r="I4">
+        <v>515.13699999999994</v>
+      </c>
+      <c r="J4">
+        <v>503.10799999999995</v>
+      </c>
+      <c r="K4">
+        <v>478.065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1</v>
+      <c r="C5">
+        <v>125.2</v>
+      </c>
+      <c r="D5">
+        <v>124.4</v>
+      </c>
+      <c r="E5">
+        <v>134.607</v>
+      </c>
+      <c r="F5">
+        <v>121.04</v>
+      </c>
+      <c r="G5">
+        <v>113.122</v>
+      </c>
+      <c r="H5">
+        <v>105.749</v>
+      </c>
+      <c r="I5">
+        <v>110.46299999999999</v>
+      </c>
+      <c r="J5">
+        <v>109.646</v>
+      </c>
+      <c r="K5">
+        <v>115.536</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>257.798</v>
-      </c>
-      <c r="D2">
-        <v>270.64</v>
-      </c>
-      <c r="E2">
-        <v>259.34300000000002</v>
-      </c>
-      <c r="F2">
-        <v>248.64600000000002</v>
-      </c>
-      <c r="G2">
-        <v>257.61799999999999</v>
-      </c>
-      <c r="H2">
-        <v>279.49600000000004</v>
-      </c>
-      <c r="I2">
-        <v>285.95</v>
-      </c>
-      <c r="J2">
-        <v>303.17200000000003</v>
-      </c>
-      <c r="K2">
-        <v>346.13299999999998</v>
-      </c>
-      <c r="L2">
-        <v>383.34900000000005</v>
-      </c>
-      <c r="M2">
-        <v>401.41399999999999</v>
-      </c>
-      <c r="N2">
-        <v>387.858</v>
-      </c>
-      <c r="O2">
-        <v>395.41399999999999</v>
-      </c>
-      <c r="P2">
-        <v>409.27000000000004</v>
-      </c>
-      <c r="Q2">
-        <v>434.73199999999997</v>
-      </c>
-      <c r="R2">
-        <v>426.36200000000002</v>
-      </c>
-      <c r="S2">
-        <v>427.92999999999995</v>
-      </c>
-      <c r="T2">
-        <v>464.30700000000002</v>
-      </c>
-      <c r="U2">
-        <v>463.36099999999999</v>
-      </c>
-      <c r="V2">
-        <v>476.49200000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.16</v>
-      </c>
-      <c r="E3">
-        <v>0.154</v>
-      </c>
-      <c r="F3">
-        <v>0.151</v>
-      </c>
-      <c r="G3">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.161</v>
-      </c>
-      <c r="I3">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="J3">
-        <v>0.97</v>
-      </c>
-      <c r="K3">
-        <v>1.26</v>
-      </c>
-      <c r="L3">
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="M3">
-        <v>2.62</v>
-      </c>
-      <c r="N3">
-        <v>3.16</v>
-      </c>
-      <c r="O3">
-        <v>0.191</v>
-      </c>
-      <c r="P3">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="Q3">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="R3">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="S3">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="T3">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="U3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="V3">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>621.44400000000007</v>
-      </c>
-      <c r="D4">
-        <v>639.47199999999998</v>
-      </c>
-      <c r="E4">
-        <v>634.31400000000008</v>
-      </c>
-      <c r="F4">
-        <v>645.43799999999999</v>
-      </c>
-      <c r="G4">
-        <v>656</v>
-      </c>
-      <c r="H4">
-        <v>584.91699999999992</v>
-      </c>
-      <c r="I4">
-        <v>575.19499999999994</v>
-      </c>
-      <c r="J4">
-        <v>601.98400000000004</v>
-      </c>
-      <c r="K4">
-        <v>622.21900000000005</v>
-      </c>
-      <c r="L4">
-        <v>613.94799999999998</v>
-      </c>
-      <c r="M4">
-        <v>617.16300000000001</v>
-      </c>
-      <c r="N4">
-        <v>558.67499999999995</v>
-      </c>
-      <c r="O4">
-        <v>535.83199999999999</v>
-      </c>
-      <c r="P4">
-        <v>516.79399999999998</v>
-      </c>
-      <c r="Q4">
-        <v>518.06399999999996</v>
-      </c>
-      <c r="R4">
-        <v>511.75799999999998</v>
-      </c>
-      <c r="S4">
-        <v>504.25399999999996</v>
-      </c>
-      <c r="T4">
-        <v>515.13699999999994</v>
-      </c>
-      <c r="U4">
-        <v>503.10799999999995</v>
-      </c>
-      <c r="V4">
-        <v>478.065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>64.159000000000006</v>
-      </c>
-      <c r="D5">
-        <v>66.146000000000001</v>
-      </c>
-      <c r="E5">
-        <v>66.896000000000001</v>
-      </c>
-      <c r="F5">
-        <v>69.578000000000003</v>
-      </c>
-      <c r="G5">
-        <v>70.447999999999993</v>
-      </c>
-      <c r="H5">
-        <v>76.397000000000006</v>
-      </c>
-      <c r="I5">
-        <v>108.648</v>
-      </c>
-      <c r="J5">
-        <v>106.238</v>
-      </c>
-      <c r="K5">
-        <v>105.965</v>
-      </c>
-      <c r="L5">
-        <v>121.702</v>
-      </c>
-      <c r="M5">
-        <v>114.4</v>
-      </c>
-      <c r="N5">
-        <v>125.2</v>
-      </c>
-      <c r="O5">
-        <v>124.4</v>
-      </c>
-      <c r="P5">
-        <v>134.607</v>
-      </c>
-      <c r="Q5">
-        <v>121.04</v>
-      </c>
-      <c r="R5">
-        <v>113.122</v>
-      </c>
-      <c r="S5">
-        <v>105.749</v>
-      </c>
-      <c r="T5">
-        <v>110.46299999999999</v>
-      </c>
-      <c r="U5">
-        <v>109.646</v>
-      </c>
-      <c r="V5">
-        <v>115.536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>1301.17</v>
+        <v>1585.2380000000001</v>
       </c>
       <c r="D6">
-        <v>1330.8400000000001</v>
+        <v>1614.751</v>
       </c>
       <c r="E6">
-        <v>1359.4109999999998</v>
+        <v>1650.3429999999998</v>
       </c>
       <c r="F6">
-        <v>1394.769</v>
+        <v>1691.6489999999999</v>
       </c>
       <c r="G6">
-        <v>1424.4289999999999</v>
+        <v>1700.4859999999999</v>
       </c>
       <c r="H6">
-        <v>1430.5220000000002</v>
+        <v>1543.893</v>
       </c>
       <c r="I6">
-        <v>1458.4649999999999</v>
+        <v>1372.703</v>
       </c>
       <c r="J6">
-        <v>1491.2939999999999</v>
+        <v>1400.8969999999999</v>
       </c>
       <c r="K6">
-        <v>1514.3879999999999</v>
-      </c>
-      <c r="L6">
-        <v>1536.3860000000002</v>
-      </c>
-      <c r="M6">
-        <v>1554.729</v>
-      </c>
-      <c r="N6">
-        <v>1585.2380000000001</v>
-      </c>
-      <c r="O6">
-        <v>1614.751</v>
-      </c>
-      <c r="P6">
-        <v>1650.3429999999998</v>
-      </c>
-      <c r="Q6">
-        <v>1691.6489999999999</v>
-      </c>
-      <c r="R6">
-        <v>1700.4859999999999</v>
-      </c>
-      <c r="S6">
-        <v>1543.893</v>
-      </c>
-      <c r="T6">
-        <v>1372.703</v>
-      </c>
-      <c r="U6">
-        <v>1400.8969999999999</v>
-      </c>
-      <c r="V6">
         <v>1574.6660000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6.3719999999999999</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5.9059999999999997</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5.6790000000000003</v>
       </c>
       <c r="F7">
-        <v>0.95599999999999996</v>
+        <v>6.1509999999999998</v>
       </c>
       <c r="G7">
-        <v>2.7650000000000001</v>
+        <v>6.2910000000000004</v>
       </c>
       <c r="H7">
-        <v>5.6509999999999998</v>
+        <v>5.5369999999999999</v>
       </c>
       <c r="I7">
-        <v>7.3879999999999999</v>
+        <v>5.1820000000000004</v>
       </c>
       <c r="J7">
-        <v>8.7349999999999994</v>
+        <v>4.9560000000000004</v>
       </c>
       <c r="K7">
-        <v>8.5429999999999993</v>
-      </c>
-      <c r="L7">
-        <v>9.2390000000000008</v>
-      </c>
-      <c r="M7">
-        <v>8.4830000000000005</v>
-      </c>
-      <c r="N7">
-        <v>6.3719999999999999</v>
-      </c>
-      <c r="O7">
-        <v>5.9059999999999997</v>
-      </c>
-      <c r="P7">
-        <v>5.6790000000000003</v>
-      </c>
-      <c r="Q7">
-        <v>6.1509999999999998</v>
-      </c>
-      <c r="R7">
-        <v>6.2910000000000004</v>
-      </c>
-      <c r="S7">
-        <v>5.5369999999999999</v>
-      </c>
-      <c r="T7">
-        <v>5.1820000000000004</v>
-      </c>
-      <c r="U7">
-        <v>4.9560000000000004</v>
-      </c>
-      <c r="V7">
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>140.48000000000002</v>
+        <v>176.66800000000001</v>
       </c>
       <c r="D8">
-        <v>142.11400000000003</v>
+        <v>172.83099999999999</v>
       </c>
       <c r="E8">
-        <v>148.61699999999999</v>
+        <v>176.20699999999999</v>
       </c>
       <c r="F8">
-        <v>149.88200000000001</v>
+        <v>172.46299999999999</v>
       </c>
       <c r="G8">
-        <v>153.69499999999999</v>
+        <v>173.92499999999998</v>
       </c>
       <c r="H8">
-        <v>157.73099999999999</v>
+        <v>182.51299999999998</v>
       </c>
       <c r="I8">
-        <v>160.179</v>
+        <v>181.523</v>
       </c>
       <c r="J8">
-        <v>164.90299999999999</v>
+        <v>179.874</v>
       </c>
       <c r="K8">
-        <v>167.27600000000001</v>
-      </c>
-      <c r="L8">
-        <v>171.62</v>
-      </c>
-      <c r="M8">
-        <v>162.71299999999999</v>
-      </c>
-      <c r="N8">
-        <v>176.66800000000001</v>
-      </c>
-      <c r="O8">
-        <v>172.83099999999999</v>
-      </c>
-      <c r="P8">
-        <v>176.20699999999999</v>
-      </c>
-      <c r="Q8">
-        <v>172.46299999999999</v>
-      </c>
-      <c r="R8">
-        <v>173.92499999999998</v>
-      </c>
-      <c r="S8">
-        <v>182.51299999999998</v>
-      </c>
-      <c r="T8">
-        <v>181.523</v>
-      </c>
-      <c r="U8">
-        <v>179.874</v>
-      </c>
-      <c r="V8">
         <v>162.83099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>73.034000000000006</v>
+        <v>64.286000000000001</v>
       </c>
       <c r="D9">
-        <v>70.268000000000001</v>
+        <v>63.682000000000002</v>
       </c>
       <c r="E9">
-        <v>67.858999999999995</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="F9">
-        <v>69.096000000000004</v>
+        <v>64.436000000000007</v>
       </c>
       <c r="G9">
-        <v>67.275999999999996</v>
+        <v>64.730999999999995</v>
       </c>
       <c r="H9">
-        <v>66.212000000000003</v>
+        <v>65.129000000000005</v>
       </c>
       <c r="I9">
-        <v>65.712000000000003</v>
+        <v>66.677000000000007</v>
       </c>
       <c r="J9">
-        <v>64.058999999999997</v>
+        <v>68.013999999999996</v>
       </c>
       <c r="K9">
-        <v>64.777000000000001</v>
-      </c>
-      <c r="L9">
-        <v>65.561000000000007</v>
-      </c>
-      <c r="M9">
-        <v>64.629000000000005</v>
-      </c>
-      <c r="N9">
-        <v>64.286000000000001</v>
-      </c>
-      <c r="O9">
-        <v>63.682000000000002</v>
-      </c>
-      <c r="P9">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="Q9">
-        <v>64.436000000000007</v>
-      </c>
-      <c r="R9">
-        <v>64.730999999999995</v>
-      </c>
-      <c r="S9">
-        <v>65.129000000000005</v>
-      </c>
-      <c r="T9">
-        <v>66.677000000000007</v>
-      </c>
-      <c r="U9">
-        <v>68.013999999999996</v>
-      </c>
-      <c r="V9">
         <v>71.492999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>159.10599999999999</v>
+        <v>152.655</v>
       </c>
       <c r="D10">
-        <v>157.62200000000001</v>
+        <v>157.01900000000001</v>
       </c>
       <c r="E10">
-        <v>160.31</v>
+        <v>157.35300000000001</v>
       </c>
       <c r="F10">
-        <v>159.87</v>
+        <v>165.369</v>
       </c>
       <c r="G10">
-        <v>161.63900000000001</v>
+        <v>160.41800000000001</v>
       </c>
       <c r="H10">
-        <v>164.88400000000001</v>
+        <v>156.81800000000001</v>
       </c>
       <c r="I10">
-        <v>168.46800000000002</v>
+        <v>153.297</v>
       </c>
       <c r="J10">
-        <v>166.67400000000001</v>
+        <v>155.68899999999999</v>
       </c>
       <c r="K10">
-        <v>163.81</v>
-      </c>
-      <c r="L10">
-        <v>161.19400000000002</v>
-      </c>
-      <c r="M10">
-        <v>152.95699999999999</v>
-      </c>
-      <c r="N10">
-        <v>152.655</v>
-      </c>
-      <c r="O10">
-        <v>157.01900000000001</v>
-      </c>
-      <c r="P10">
-        <v>157.35300000000001</v>
-      </c>
-      <c r="Q10">
-        <v>165.369</v>
-      </c>
-      <c r="R10">
-        <v>160.41800000000001</v>
-      </c>
-      <c r="S10">
-        <v>156.81800000000001</v>
-      </c>
-      <c r="T10">
-        <v>153.297</v>
-      </c>
-      <c r="U10">
-        <v>155.68899999999999</v>
-      </c>
-      <c r="V10">
         <v>158.66399999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.81399999999999995</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="D11">
-        <v>0.996</v>
+        <v>1.28</v>
       </c>
       <c r="E11">
-        <v>1.1040000000000001</v>
+        <v>1.2919999999999998</v>
       </c>
       <c r="F11">
-        <v>1.1240000000000001</v>
+        <v>1.2210000000000001</v>
       </c>
       <c r="G11">
-        <v>1.194</v>
+        <v>1.069</v>
       </c>
       <c r="H11">
-        <v>0.87199999999999989</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="I11">
-        <v>0.90200000000000002</v>
+        <v>1.417</v>
       </c>
       <c r="J11">
-        <v>1.524</v>
+        <v>1.754</v>
       </c>
       <c r="K11">
-        <v>1.9279999999999999</v>
-      </c>
-      <c r="L11">
-        <v>2.573</v>
-      </c>
-      <c r="M11">
-        <v>3.0009999999999999</v>
-      </c>
-      <c r="N11">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="O11">
-        <v>1.28</v>
-      </c>
-      <c r="P11">
-        <v>1.2919999999999998</v>
-      </c>
-      <c r="Q11">
-        <v>1.2210000000000001</v>
-      </c>
-      <c r="R11">
-        <v>1.069</v>
-      </c>
-      <c r="S11">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="T11">
-        <v>1.417</v>
-      </c>
-      <c r="U11">
-        <v>1.754</v>
-      </c>
-      <c r="V11">
         <v>1.653</v>
       </c>
     </row>
@@ -1232,6 +835,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D001B2BE74D025469E1D0E28F10DD2C8" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29ebb019d354d671b53245c09b1e2d80">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b98728ac-f998-415c-abee-6b046fb1441e" xmlns:ns3="d869c146-c82e-4435-92e4-da91542262fd" xmlns:ns4="d81c2681-db7b-4a56-9abd-a3238a78f6b2" xmlns:ns5="a95247a4-6a6b-40fb-87b6-0fb2f012c536" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25bdb6a5bc4ffbbe42be2b4704fa052c" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1493,15 +1105,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8CB5FC7-4328-451C-8ADD-69194A491881}">
   <ds:schemaRefs>
@@ -1515,6 +1118,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD8D5D49-EC55-43B6-AD90-0F3637216ECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CAD6D-B6CF-4094-A504-60ACA6DE3595}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1536,14 +1147,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD8D5D49-EC55-43B6-AD90-0F3637216ECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{06a1c6b2-52d5-49b7-9598-2998b6301fb2}" enabled="1" method="Privileged" siteId="{8c3c81bc-2b3c-44af-b3f7-6f620b3910ee}" removed="0"/>
